--- a/AutoTestTool_U8_20181123/AutoTestTool_U8/AutoTestTool/bin/Debug/智能报表/U8Main_PCBA_主板.xlsx
+++ b/AutoTestTool_U8_20181123/AutoTestTool_U8/AutoTestTool/bin/Debug/智能报表/U8Main_PCBA_主板.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <x:si>
     <x:t>U8Main_PCBA_主板</x:t>
   </x:si>
@@ -615,6 +615,9 @@
   </x:si>
   <x:si>
     <x:t>2018-11-22 19:57:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-11-23 10:52:01</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -669,7 +672,7 @@
   <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </x:cellStyleXfs>
-  <x:cellXfs count="160">
+  <x:cellXfs count="162">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
@@ -882,6 +885,12 @@
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1442,7 +1451,7 @@
 
 <file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:S79"/>
+  <x:dimension ref="A1:S80"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -1454,40 +1463,40 @@
       </x:c>
     </x:row>
     <x:row r="2">
-      <x:c r="A2" s="157" t="s">
+      <x:c r="A2" s="159" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="157" t="s">
+      <x:c r="B2" s="159" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="157" t="s">
+      <x:c r="C2" s="159" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D2" s="157" t="s">
+      <x:c r="D2" s="159" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E2" s="157" t="s">
+      <x:c r="E2" s="159" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F2" s="157" t="s">
+      <x:c r="F2" s="159" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G2" s="157" t="s">
+      <x:c r="G2" s="159" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H2" s="157" t="s">
+      <x:c r="H2" s="159" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="I2" s="157" t="s">
+      <x:c r="I2" s="159" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="J2" s="157" t="s">
+      <x:c r="J2" s="159" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="K2" s="157" t="s">
+      <x:c r="K2" s="159" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="L2" s="157" t="s">
+      <x:c r="L2" s="159" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="M2" s="71" t="s">
@@ -5402,6 +5411,56 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="P79" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B80" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C80" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D80" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E80" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F80" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G80" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H80" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I80" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J80" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K80" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L80" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M80" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N80" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="O80" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="P80" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
